--- a/src/test/resources/testdata/SampleTestData.xlsx
+++ b/src/test/resources/testdata/SampleTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gozde.ercevik/eclipse-workspace/JavaBasics/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gozde.ercevik/eclipse-workspace/SyntaxHRMS/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D400BF-84F1-7B46-B716-FA836EB0A492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6188A761-D750-8B47-B722-725901C08C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="3680" windowWidth="28040" windowHeight="17440" xr2:uid="{05F7DA95-5B84-3E41-ADB8-7E6AA8EF4519}"/>
+    <workbookView xWindow="7800" yWindow="3680" windowWidth="28040" windowHeight="17440" xr2:uid="{05F7DA95-5B84-3E41-ADB8-7E6AA8EF4519}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>FirstName</t>
   </si>
@@ -44,28 +44,16 @@
     <t>John</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>john123</t>
-  </si>
-  <si>
-    <t>johndoe</t>
-  </si>
-  <si>
-    <t>janedoe</t>
-  </si>
-  <si>
-    <t>jane123</t>
-  </si>
-  <si>
     <t>Jane</t>
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -417,15 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FA2CA7-F4C7-AF47-AC67-7B7D270DCB4A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,45 +427,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
